--- a/data/trans_dic/P64D1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P64D1_R-Estudios-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2266826740533727</v>
+        <v>0.2266826740533726</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.460439255379509</v>
+        <v>0.4604392553795091</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.3068120814019495</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1564630004259069</v>
+        <v>0.1482190930582813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3730947109928731</v>
+        <v>0.3587374692189423</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2455066205490622</v>
+        <v>0.2501352555430195</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3277186167480356</v>
+        <v>0.3203454633066909</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5573477159819893</v>
+        <v>0.5583881097727946</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3717815644115011</v>
+        <v>0.3712572163701042</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.209850404478516</v>
+        <v>0.2126299832845897</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.355047164403496</v>
+        <v>0.3521338826492671</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2803201134190076</v>
+        <v>0.2792543278553196</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2640408749465348</v>
+        <v>0.2669124681980251</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.412543445684373</v>
+        <v>0.4110015973595322</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3213985996724266</v>
+        <v>0.3190203913414598</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.3455919480632808</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3063236121886216</v>
+        <v>0.3063236121886215</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2249685455770348</v>
+        <v>0.2245587488810581</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3100722661346337</v>
+        <v>0.3061375783928288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.278564925069526</v>
+        <v>0.2797125196498252</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3102137182574455</v>
+        <v>0.3120555789015353</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3862697505965024</v>
+        <v>0.3813325215824552</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3366590739876611</v>
+        <v>0.3340902190191889</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2240641604591384</v>
+        <v>0.2213208774632016</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3546659260432504</v>
+        <v>0.3518410075256335</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2856671928877234</v>
+        <v>0.2874230532599555</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2663806634315902</v>
+        <v>0.2682991686439095</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3999572407023138</v>
+        <v>0.3984940635850183</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3176679424999824</v>
+        <v>0.3198417015576997</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25212</v>
+        <v>23883</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>31357</v>
+        <v>30150</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>60194</v>
+        <v>61328</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>52807</v>
+        <v>51619</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46843</v>
+        <v>46930</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>91154</v>
+        <v>91025</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>264735</v>
+        <v>268241</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>331338</v>
+        <v>328619</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>615236</v>
+        <v>612897</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>333098</v>
+        <v>336721</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>384995</v>
+        <v>383556</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>705394</v>
+        <v>700174</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>107617</v>
+        <v>107421</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>146899</v>
+        <v>145035</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>265227</v>
+        <v>266319</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>148395</v>
+        <v>149276</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>182998</v>
+        <v>180659</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>320539</v>
+        <v>318093</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>425954</v>
+        <v>420739</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>528815</v>
+        <v>524603</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>969001</v>
+        <v>974957</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>506400</v>
+        <v>510047</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>596346</v>
+        <v>594164</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1077550</v>
+        <v>1084923</v>
       </c>
     </row>
     <row r="20">
